--- a/reimbursement/src/main/resources/Sanity.xlsx
+++ b/reimbursement/src/main/resources/Sanity.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">com.darwinbox.reimbursement.TestCreateReimbUnits</t>
   </si>
   <si>
-    <t xml:space="preserve">ReimbUnits//ReimbUnitsCreationScenarios.xlsx</t>
+    <t xml:space="preserve">TestData.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">ReimbUnits</t>
@@ -92,6 +92,33 @@
   </si>
   <si>
     <t xml:space="preserve">com.darwinbox.reimbursement.TestValidateDuplicateReimbUnits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement Form Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.reimbursement.TestCreateReimbForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReimbForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement Form Updation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.reimbursement.TestUpdateReimbForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement Form Deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.reimbursement.TestDeleteReimbForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement Form Duplicate check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.reimbursement.TestValidateDuplicateReimbForm</t>
   </si>
 </sst>
 </file>
@@ -219,16 +246,16 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.71"/>
   </cols>
   <sheetData>
@@ -362,10 +389,98 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/reimbursement/src/main/resources/Sanity.xlsx
+++ b/reimbursement/src/main/resources/Sanity.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">com.darwinbox.reimbursement.TestValidateDuplicateReimbUnits</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reimbursement Form Creation</t>
   </si>
   <si>
@@ -103,22 +106,61 @@
     <t xml:space="preserve">ReimbForm</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reimbursement Form Updation</t>
   </si>
   <si>
     <t xml:space="preserve">com.darwinbox.reimbursement.TestUpdateReimbForm</t>
   </si>
   <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reimbursement Form Deletion</t>
   </si>
   <si>
     <t xml:space="preserve">com.darwinbox.reimbursement.TestDeleteReimbForm</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reimbursement Form Duplicate check</t>
   </si>
   <si>
     <t xml:space="preserve">com.darwinbox.reimbursement.TestValidateDuplicateReimbForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement Expense Creation as Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.reimbursement.TestCreateAnExpenseAsEmployeeWithoutAttachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement Expense Creation as Employee Linewise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.reimbursement.TestCreateAnExpenseAddingItemLinewiseAsEmployee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement Expense Creation Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.darwinbox.reimbursement.TestFailureOnCreatingAnExpenseAsEmployee</t>
   </si>
 </sst>
 </file>
@@ -243,13 +285,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.88"/>
@@ -390,6 +432,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -397,22 +442,25 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -420,22 +468,25 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -443,22 +494,25 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -466,27 +520,106 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+    </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
     </row>
@@ -594,14 +727,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
@@ -647,9 +780,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
@@ -671,23 +808,15 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5"/>
-    </row>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -777,8 +906,16 @@
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+    </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="5"/>
       <c r="B170" s="4"/>
@@ -1228,16 +1365,6 @@
       <c r="A259" s="5"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="5"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="5"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/reimbursement/src/main/resources/Sanity.xlsx
+++ b/reimbursement/src/main/resources/Sanity.xlsx
@@ -171,12 +171,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,21 +194,139 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -217,8 +334,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,6 +374,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -252,11 +435,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,14 +452,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -285,23 +545,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:BL259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -326,6 +586,62 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
